--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/33.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/33.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1786618611659687</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.128062377791545</v>
+        <v>-2.139964979798283</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05996400837105467</v>
+        <v>0.1120018305905222</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.001629441091024713</v>
+        <v>0.0195970183011612</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1738279391427109</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.159112829524112</v>
+        <v>-2.146062356803733</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.02347862949417039</v>
+        <v>0.03148559213233434</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.006683853739235869</v>
+        <v>0.02480574088058961</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1845001050214342</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.29496168169756</v>
+        <v>-2.239321667961218</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.05391184150186824</v>
+        <v>-0.008786860232663172</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02211111133071669</v>
+        <v>0.05281329835686043</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2137286783594193</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.429479077033668</v>
+        <v>-2.36048424015925</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.08185169778302002</v>
+        <v>-0.05031940871582218</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02083027790954577</v>
+        <v>0.06737820411760406</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2529659847224753</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.556994583000707</v>
+        <v>-2.454266253336709</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.04620793343386352</v>
+        <v>-0.05062253929216597</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03653939485986876</v>
+        <v>0.09987538769541733</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2871069243790237</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.479121130834868</v>
+        <v>-2.3697739419868</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0379239908022714</v>
+        <v>-0.04184151130902417</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01383753735062929</v>
+        <v>0.06975933443962848</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.301079351709836</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.278236436899775</v>
+        <v>-2.169605294926209</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.03603628630773616</v>
+        <v>-0.06246292938987601</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05162944232329245</v>
+        <v>0.1366194489454273</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2903184593723458</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.880525461212669</v>
+        <v>-1.80879634994439</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.06982894140296231</v>
+        <v>-0.1640995010424956</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03750916873589816</v>
+        <v>0.1071834572442126</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2580386926053984</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.460976885615275</v>
+        <v>-1.379369499066385</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.147423659819527</v>
+        <v>-0.2881890825682416</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08250789642501638</v>
+        <v>0.166731232756479</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2100211837746848</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.9098653704399415</v>
+        <v>-0.7595748164824526</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.3687169095192876</v>
+        <v>-0.5628540510075177</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08683040426112987</v>
+        <v>0.1906974558286171</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1499602602673736</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.297871573311617</v>
+        <v>-0.06616758758044372</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6994720131543455</v>
+        <v>-0.9671698577031286</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1802360963810345</v>
+        <v>0.3239413367916746</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.07900590006209911</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3167363438372498</v>
+        <v>0.6519536271433964</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.049898888376558</v>
+        <v>-1.372850056952625</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2907403047528941</v>
+        <v>0.4408399535385609</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.001620589663436058</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9520339901827642</v>
+        <v>1.340238742202075</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.468805217501336</v>
+        <v>-1.851093129035514</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4557098196376786</v>
+        <v>0.6393044822283185</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.09130557660398035</v>
       </c>
       <c r="E15" t="n">
-        <v>1.502827126764835</v>
+        <v>1.970648484244131</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.948787173433634</v>
+        <v>-2.374389821668429</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6038668710679028</v>
+        <v>0.8047247284932197</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1870699896524131</v>
       </c>
       <c r="E16" t="n">
-        <v>2.110725916469473</v>
+        <v>2.654873357357697</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.364853101966797</v>
+        <v>-2.811615728240012</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7715590718536907</v>
+        <v>1.001687632476824</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2893022340995896</v>
       </c>
       <c r="E17" t="n">
-        <v>2.626257099046032</v>
+        <v>3.213519222652899</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.810364171011325</v>
+        <v>-3.274651648089542</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9599922351729728</v>
+        <v>1.207767020815781</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3976902421776283</v>
       </c>
       <c r="E18" t="n">
-        <v>3.014072721673578</v>
+        <v>3.624380088130694</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.244017162258517</v>
+        <v>-3.685325877840251</v>
       </c>
       <c r="G18" t="n">
-        <v>1.172995443034374</v>
+        <v>1.444917598190314</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.5120645404218214</v>
       </c>
       <c r="E19" t="n">
-        <v>3.272448538598943</v>
+        <v>3.887812147466301</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.649561654157437</v>
+        <v>-4.107691677043544</v>
       </c>
       <c r="G19" t="n">
-        <v>1.373880746890145</v>
+        <v>1.651888690558677</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.629929037390299</v>
       </c>
       <c r="E20" t="n">
-        <v>3.602813293000882</v>
+        <v>4.263370804173918</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.064385784192741</v>
+        <v>-4.492244529010827</v>
       </c>
       <c r="G20" t="n">
-        <v>1.560955006941632</v>
+        <v>1.869352248329136</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.7470967615898242</v>
       </c>
       <c r="E21" t="n">
-        <v>3.877382503893909</v>
+        <v>4.509820232186152</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.388753188580216</v>
+        <v>-4.836266322246169</v>
       </c>
       <c r="G21" t="n">
-        <v>1.771544148764464</v>
+        <v>2.107859899209434</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.8610770970339529</v>
       </c>
       <c r="E22" t="n">
-        <v>4.077366954910123</v>
+        <v>4.713265373122234</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.661569792408607</v>
+        <v>-5.138736354497036</v>
       </c>
       <c r="G22" t="n">
-        <v>1.859161083741353</v>
+        <v>2.234086642786505</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.9677334784817876</v>
       </c>
       <c r="E23" t="n">
-        <v>4.253562059850456</v>
+        <v>4.855700148763209</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.903480800665159</v>
+        <v>-5.37049096364438</v>
       </c>
       <c r="G23" t="n">
-        <v>1.965251296175587</v>
+        <v>2.368250894050775</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.064790350530863</v>
       </c>
       <c r="E24" t="n">
-        <v>4.333116453401412</v>
+        <v>4.898544636622052</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.082406520475293</v>
+        <v>-5.584577848068193</v>
       </c>
       <c r="G24" t="n">
-        <v>2.082631140336427</v>
+        <v>2.509898872018745</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.147906260654875</v>
       </c>
       <c r="E25" t="n">
-        <v>4.429314362379469</v>
+        <v>4.998467941093686</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.181191103043438</v>
+        <v>-5.66949786629267</v>
       </c>
       <c r="G25" t="n">
-        <v>2.128774689135802</v>
+        <v>2.578677187052916</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.214443787048281</v>
       </c>
       <c r="E26" t="n">
-        <v>4.466881816543089</v>
+        <v>5.045025626032573</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.263144619576383</v>
+        <v>-5.719223784186925</v>
       </c>
       <c r="G26" t="n">
-        <v>2.120838401289956</v>
+        <v>2.575638562241357</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.262280914328509</v>
       </c>
       <c r="E27" t="n">
-        <v>4.53641033400966</v>
+        <v>5.094255983376969</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.333332766254857</v>
+        <v>-5.828520044658485</v>
       </c>
       <c r="G27" t="n">
-        <v>2.132221960800782</v>
+        <v>2.579809199828961</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.290721018893209</v>
       </c>
       <c r="E28" t="n">
-        <v>4.495272404204357</v>
+        <v>5.072420823149389</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.267918773673628</v>
+        <v>-5.754814790397543</v>
       </c>
       <c r="G28" t="n">
-        <v>2.081621721616409</v>
+        <v>2.533935845889386</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.300180466911438</v>
       </c>
       <c r="E29" t="n">
-        <v>4.450137054283648</v>
+        <v>5.023849180135881</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.216901958667037</v>
+        <v>-5.683394298991698</v>
       </c>
       <c r="G29" t="n">
-        <v>2.027669968313306</v>
+        <v>2.441645088766576</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.29165854070843</v>
       </c>
       <c r="E30" t="n">
-        <v>4.345845497925144</v>
+        <v>4.924235715368034</v>
       </c>
       <c r="F30" t="n">
-        <v>-5.118613851529764</v>
+        <v>-5.594022012307128</v>
       </c>
       <c r="G30" t="n">
-        <v>1.958200613152379</v>
+        <v>2.355907319394748</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.267398997204549</v>
       </c>
       <c r="E31" t="n">
-        <v>4.226801180237458</v>
+        <v>4.786117958277083</v>
       </c>
       <c r="F31" t="n">
-        <v>-5.016225552643053</v>
+        <v>-5.483601668028322</v>
       </c>
       <c r="G31" t="n">
-        <v>1.86580860919723</v>
+        <v>2.225631922365424</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.229602695764974</v>
       </c>
       <c r="E32" t="n">
-        <v>4.03120815809383</v>
+        <v>4.59873324860113</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.849267086431393</v>
+        <v>-5.309223211823683</v>
       </c>
       <c r="G32" t="n">
-        <v>1.783763299602435</v>
+        <v>2.1307105773638</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.18243151907438</v>
       </c>
       <c r="E33" t="n">
-        <v>3.85510454125501</v>
+        <v>4.385613545890471</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.692314063961446</v>
+        <v>-5.122833587731845</v>
       </c>
       <c r="G33" t="n">
-        <v>1.682556722026923</v>
+        <v>1.992564763921719</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.129451799339974</v>
       </c>
       <c r="E34" t="n">
-        <v>3.656899838773547</v>
+        <v>4.173211109895666</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.466446104225737</v>
+        <v>-4.863907012435376</v>
       </c>
       <c r="G34" t="n">
-        <v>1.529948469497791</v>
+        <v>1.810310706978571</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.074528721192612</v>
       </c>
       <c r="E35" t="n">
-        <v>3.450766167494359</v>
+        <v>3.916516234355418</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.312787263330907</v>
+        <v>-4.684926704724674</v>
       </c>
       <c r="G35" t="n">
-        <v>1.470398864223494</v>
+        <v>1.752338356574345</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.019863446939866</v>
       </c>
       <c r="E36" t="n">
-        <v>3.205584154648407</v>
+        <v>3.638746159750818</v>
       </c>
       <c r="F36" t="n">
-        <v>-4.113145587735025</v>
+        <v>-4.453322745984488</v>
       </c>
       <c r="G36" t="n">
-        <v>1.371911313024925</v>
+        <v>1.641928075986704</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9680537677312823</v>
       </c>
       <c r="E37" t="n">
-        <v>2.952016952338523</v>
+        <v>3.344366725277014</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.95918392122419</v>
+        <v>-4.281973460820918</v>
       </c>
       <c r="G37" t="n">
-        <v>1.301871682031239</v>
+        <v>1.562615820944417</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.9199131644092614</v>
       </c>
       <c r="E38" t="n">
-        <v>2.693397167142458</v>
+        <v>3.037139921668189</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.786879500280833</v>
+        <v>-4.064204027831069</v>
       </c>
       <c r="G38" t="n">
-        <v>1.209875516595299</v>
+        <v>1.42640284612695</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8761785561762032</v>
       </c>
       <c r="E39" t="n">
-        <v>2.470478478839164</v>
+        <v>2.792427547743333</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.667931855020412</v>
+        <v>-3.922278840915518</v>
       </c>
       <c r="G39" t="n">
-        <v>1.117186481270573</v>
+        <v>1.31824317283651</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8367442513199884</v>
       </c>
       <c r="E40" t="n">
-        <v>2.233404751469901</v>
+        <v>2.541018244787784</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.578780359620825</v>
+        <v>-3.809603314934435</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9883730641034135</v>
+        <v>1.183547070742115</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.8006917341890313</v>
       </c>
       <c r="E41" t="n">
-        <v>1.988615527539775</v>
+        <v>2.267117506956473</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.421072560313403</v>
+        <v>-3.637450154318913</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9161047829568896</v>
+        <v>1.098049000196249</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.7672363171457117</v>
       </c>
       <c r="E42" t="n">
-        <v>1.72849533747891</v>
+        <v>1.979909519799873</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.330934518219176</v>
+        <v>-3.501946517248503</v>
       </c>
       <c r="G42" t="n">
-        <v>0.832288263716818</v>
+        <v>0.9873313195875278</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.7352301164177218</v>
       </c>
       <c r="E43" t="n">
-        <v>1.518334969891831</v>
+        <v>1.741275005418812</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.191493233259682</v>
+        <v>-3.336130432464393</v>
       </c>
       <c r="G43" t="n">
-        <v>0.752355719346278</v>
+        <v>0.8711749763042439</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.7046842602590263</v>
       </c>
       <c r="E44" t="n">
-        <v>1.279046620545296</v>
+        <v>1.47468721650171</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.115614526667148</v>
+        <v>-3.254817332642034</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7069373662315571</v>
+        <v>0.8415285619695511</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.6740074860404109</v>
       </c>
       <c r="E45" t="n">
-        <v>1.147716670665874</v>
+        <v>1.310686255651601</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.003492198739875</v>
+        <v>-3.102620471609368</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6306924022726359</v>
+        <v>0.7349504129939187</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.6432358423263113</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9720528066349889</v>
+        <v>1.121537045457817</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.905291005299039</v>
+        <v>-3.002132685551404</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5331685257433284</v>
+        <v>0.6301312752500277</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.6116714922535395</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8097096101842817</v>
+        <v>0.9370183530419037</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.838385756663161</v>
+        <v>-2.901061205405791</v>
       </c>
       <c r="G47" t="n">
-        <v>0.4784098473848878</v>
+        <v>0.5762771092552044</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.5787817219560139</v>
       </c>
       <c r="E48" t="n">
-        <v>0.6611719682517666</v>
+        <v>0.7822198753625699</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.754260617560655</v>
+        <v>-2.810657542856841</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4177465269548492</v>
+        <v>0.5061673373836919</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.5448889353948666</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5609260157421325</v>
+        <v>0.673444792109291</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.67786805279796</v>
+        <v>-2.719234702857044</v>
       </c>
       <c r="G49" t="n">
-        <v>0.353019914976315</v>
+        <v>0.4379336815138564</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.5098794701180797</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3991433363933567</v>
+        <v>0.4938481595547347</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.600361772879524</v>
+        <v>-2.627721594597089</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2923212191470251</v>
+        <v>0.3699476534387807</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.4746296404046669</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3137953063339707</v>
+        <v>0.3762944880010209</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.512182491038674</v>
+        <v>-2.512109300557464</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2287778532813821</v>
+        <v>0.3046837013440314</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4388983700370876</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2202932467471399</v>
+        <v>0.2815158644377564</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.426040344258162</v>
+        <v>-2.420988981213335</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2008367771588769</v>
+        <v>0.278055174517888</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.4035149154028814</v>
       </c>
       <c r="E53" t="n">
-        <v>0.102476089461071</v>
+        <v>0.1552006823625569</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.341462034092832</v>
+        <v>-2.31929324725507</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1764643469160245</v>
+        <v>0.2539108546081394</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3683020709833175</v>
       </c>
       <c r="E54" t="n">
-        <v>0.01120511970978467</v>
+        <v>0.0325675914128854</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.26990614029675</v>
+        <v>-2.247375670497676</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1368652469781568</v>
+        <v>0.2176602191856185</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3336206880098482</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.02661423169333216</v>
+        <v>-0.00522004411504053</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.215741524677462</v>
+        <v>-2.183965877260241</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1001260650935608</v>
+        <v>0.1582075912989248</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2993938949493553</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.08304592246809273</v>
+        <v>-0.07362264801233523</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.177279316881052</v>
+        <v>-2.139724061130968</v>
       </c>
       <c r="G56" t="n">
-        <v>0.06364061021049196</v>
+        <v>0.1238873548183116</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2656078235057664</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.189750325023812</v>
+        <v>-0.1845538008579185</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.137988226884942</v>
+        <v>-2.108013065305482</v>
       </c>
       <c r="G57" t="n">
-        <v>0.04161332496973585</v>
+        <v>0.1088540299778255</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2320568862870197</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.2237100983844671</v>
+        <v>-0.2139538072392052</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.130934494258351</v>
+        <v>-2.091491534013731</v>
       </c>
       <c r="G58" t="n">
-        <v>0.01971778259515732</v>
+        <v>0.0920049712826604</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1987207431324821</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2949268762842773</v>
+        <v>-0.3011608755213192</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.089232387827056</v>
+        <v>-2.043163859270922</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.01347593039550224</v>
+        <v>0.06181999699039901</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1662191662558949</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.32594622206233</v>
+        <v>-0.3265646816285526</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.115293078503147</v>
+        <v>-2.076386238533389</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.03745923124658938</v>
+        <v>0.03457667012209351</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1345911475087588</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3724935383497116</v>
+        <v>-0.352503388169294</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.101036182684161</v>
+        <v>-2.068567055457478</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.03168938164455275</v>
+        <v>0.03487736101573029</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.1040636094144275</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.3975435904644311</v>
+        <v>-0.3939889727603434</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.045961565415165</v>
+        <v>-2.009593215302032</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.06608585820975947</v>
+        <v>0.009194821159223071</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.07376321542260643</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.4196452860277505</v>
+        <v>-0.3995654775078509</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.075253005915991</v>
+        <v>-2.040445442814656</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1053891466194043</v>
+        <v>-0.0189213021975089</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.0432637968316941</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.4434474404378434</v>
+        <v>-0.4014318347786999</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.125064617665328</v>
+        <v>-2.096265993071315</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.09965162281323535</v>
+        <v>-0.01404254670420119</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.01210098054269776</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.467831459173554</v>
+        <v>-0.3852561285106647</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.198908323919892</v>
+        <v>-2.173962568240897</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.1258599142930994</v>
+        <v>-0.02574936417370341</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.01983585462503819</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.5213099140315005</v>
+        <v>-0.4499546841380684</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.242865917013801</v>
+        <v>-2.226426115092734</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.148113480104929</v>
+        <v>-0.05359712243266624</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.05183529675182282</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.5292541308461439</v>
+        <v>-0.414301161058084</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.253764589586612</v>
+        <v>-2.266235027743403</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.1682872164090478</v>
+        <v>-0.07531944733504832</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.08328955069322132</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.5770956988095849</v>
+        <v>-0.437764199571905</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.326765995386587</v>
+        <v>-2.34584553399662</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.1887738420203383</v>
+        <v>-0.08840834505806165</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1130752671352541</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.5787034497134927</v>
+        <v>-0.4337387231053678</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.373623761298434</v>
+        <v>-2.377711449673999</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.188321890798868</v>
+        <v>-0.07903081465306026</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1408840060422942</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.5814901772855546</v>
+        <v>-0.4119279597048573</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.389438394525834</v>
+        <v>-2.397165479579555</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.1733428488986125</v>
+        <v>-0.0648995624934845</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1657941210500573</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.6207044172763942</v>
+        <v>-0.4264019872847654</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.443724384359795</v>
+        <v>-2.478933885187107</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.1984069291888972</v>
+        <v>-0.0790326444150905</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1874633760204958</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.6195919219620059</v>
+        <v>-0.4175001950076275</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.536669586368755</v>
+        <v>-2.575967385492309</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.222163339548234</v>
+        <v>-0.1247766951711948</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2051806470232713</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.5739765644686953</v>
+        <v>-0.3396163741902843</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.552927631928151</v>
+        <v>-2.611666042702373</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2561487295773126</v>
+        <v>-0.1536625384219829</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2189637848336735</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.5351581629970651</v>
+        <v>-0.3059694901368009</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.575902733900574</v>
+        <v>-2.655479084595893</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2503178879076011</v>
+        <v>-0.1467637256472856</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.229343772710898</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.4858735227124383</v>
+        <v>-0.2455129328161799</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.597675682219126</v>
+        <v>-2.666544265513456</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2537139262357343</v>
+        <v>-0.1547847924671993</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2369289305302874</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.3766550271271636</v>
+        <v>-0.1232762903063946</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.607011128097432</v>
+        <v>-2.70156774053436</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2215662272056977</v>
+        <v>-0.1242960776779174</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2428553784037172</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.3440023137767795</v>
+        <v>-0.1036313552290164</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.593528221617239</v>
+        <v>-2.700058186859408</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2170278074500153</v>
+        <v>-0.124802921760295</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2471182100048044</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2015492405155032</v>
+        <v>0.03885343390745088</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.603941397331359</v>
+        <v>-2.717738567436981</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2399492364028841</v>
+        <v>-0.1428175388687256</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2500715270630544</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.101814401532984</v>
+        <v>0.140820582566868</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.603612040165915</v>
+        <v>-2.706559331352866</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.1959648067991979</v>
+        <v>-0.1002908196824673</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2515908720688574</v>
       </c>
       <c r="E80" t="n">
-        <v>0.006878342428933947</v>
+        <v>0.2101112309695078</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.557529483434215</v>
+        <v>-2.659136168973674</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.184153082973295</v>
+        <v>-0.0888176018321596</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2514909498207122</v>
       </c>
       <c r="E81" t="n">
-        <v>0.2254702534513774</v>
+        <v>0.42164940936536</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.534075593730545</v>
+        <v>-2.618249526487191</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1863237906618414</v>
+        <v>-0.1072652626210814</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2492553592275236</v>
       </c>
       <c r="E82" t="n">
-        <v>0.3905495540579765</v>
+        <v>0.5664000538159464</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.505969229104641</v>
+        <v>-2.602325717458653</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1261551159006455</v>
+        <v>-0.03838082138915569</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2443959249758871</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5535130398369367</v>
+        <v>0.7286151669245367</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.459908019596628</v>
+        <v>-2.55844192476663</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.08744040094406248</v>
+        <v>-0.01471772889336129</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.236204406354723</v>
       </c>
       <c r="E84" t="n">
-        <v>0.7378719330355419</v>
+        <v>0.888239336998301</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.376923432159641</v>
+        <v>-2.493428040149348</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.07352750038676253</v>
+        <v>-0.009208315420296081</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2252982468579785</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9111564965064326</v>
+        <v>1.04974572228051</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.296009525420213</v>
+        <v>-2.444029344698169</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.04193909861730386</v>
+        <v>0.01157290187786375</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2121063169183351</v>
       </c>
       <c r="E86" t="n">
-        <v>1.121401033146902</v>
+        <v>1.249804583619287</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.249023066245573</v>
+        <v>-2.409101627223515</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.05444491217334604</v>
+        <v>0.0005357773114308928</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1972691012629881</v>
       </c>
       <c r="E87" t="n">
-        <v>1.235268344130351</v>
+        <v>1.345137625077716</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.134777604442541</v>
+        <v>-2.307359539293818</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.0002766370299975204</v>
+        <v>0.06474212695269896</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1813271845015446</v>
       </c>
       <c r="E88" t="n">
-        <v>1.395080369772554</v>
+        <v>1.503020471619364</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.968077134677145</v>
+        <v>-2.158643190603016</v>
       </c>
       <c r="G88" t="n">
-        <v>0.04546802364678357</v>
+        <v>0.1012897937447961</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1648919587064109</v>
       </c>
       <c r="E89" t="n">
-        <v>1.521881658627121</v>
+        <v>1.620773587234375</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.815048036881058</v>
+        <v>-2.00743287626499</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04473367915197891</v>
+        <v>0.1024346148550522</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1493408926931852</v>
       </c>
       <c r="E90" t="n">
-        <v>1.615660622201196</v>
+        <v>1.718307832415187</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.675936109087007</v>
+        <v>-1.891509522680224</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03632409286097669</v>
+        <v>0.09815114194225058</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1361919051039603</v>
       </c>
       <c r="E91" t="n">
-        <v>1.656362458722624</v>
+        <v>1.766911191303886</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.404953841693936</v>
+        <v>-1.61977766277543</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0732535699967181</v>
+        <v>0.1393091991298863</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1258910361373783</v>
       </c>
       <c r="E92" t="n">
-        <v>1.636159446226021</v>
+        <v>1.727805517193508</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.177090526464245</v>
+        <v>-1.39172283245324</v>
       </c>
       <c r="G92" t="n">
-        <v>0.08491830293952471</v>
+        <v>0.1246650036811654</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1185008729477384</v>
       </c>
       <c r="E93" t="n">
-        <v>1.679240583307444</v>
+        <v>1.802472616361682</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.9926614923878136</v>
+        <v>-1.191576752457688</v>
       </c>
       <c r="G93" t="n">
-        <v>0.06133815965576804</v>
+        <v>0.1088088958477461</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1135725889768546</v>
       </c>
       <c r="E94" t="n">
-        <v>1.70564343948319</v>
+        <v>1.836471424645649</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.7511402234437037</v>
+        <v>-0.9427888885708017</v>
       </c>
       <c r="G94" t="n">
-        <v>0.05886310154952442</v>
+        <v>0.09248497885526112</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1106568315249442</v>
       </c>
       <c r="E95" t="n">
-        <v>1.642239135531846</v>
+        <v>1.765308929686069</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.5516406593655047</v>
+        <v>-0.7193700653125741</v>
       </c>
       <c r="G95" t="n">
-        <v>0.005212039140058253</v>
+        <v>0.03926147084019534</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1091150987594094</v>
       </c>
       <c r="E96" t="n">
-        <v>1.548783429916448</v>
+        <v>1.66380532074098</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.3719257021996591</v>
+        <v>-0.5248931980073953</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.01823697119819758</v>
+        <v>0.001983728998030782</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1079918595827627</v>
       </c>
       <c r="E97" t="n">
-        <v>1.479258571973937</v>
+        <v>1.584133822420088</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2002104646300412</v>
+        <v>-0.3057084440871528</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04287044749069815</v>
+        <v>-0.02679232853094259</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1071402363380581</v>
       </c>
       <c r="E98" t="n">
-        <v>1.385029486940422</v>
+        <v>1.467984188264249</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.09581522175649007</v>
+        <v>-0.1787412568085095</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.115143608002636</v>
+        <v>-0.1140994238040434</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1066117060566851</v>
       </c>
       <c r="E99" t="n">
-        <v>1.272077666892773</v>
+        <v>1.31929162647984</v>
       </c>
       <c r="F99" t="n">
-        <v>0.004906468881007476</v>
+        <v>-0.04999005155037823</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1262063492374923</v>
+        <v>-0.125594598798714</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1071206061503469</v>
       </c>
       <c r="E100" t="n">
-        <v>1.12443233891034</v>
+        <v>1.145541083611914</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0735518212076479</v>
+        <v>0.04632740188032158</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1354954411443652</v>
+        <v>-0.1670100425119374</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.108870102001984</v>
       </c>
       <c r="E101" t="n">
-        <v>1.012568617350009</v>
+        <v>1.029559787562856</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1300280361918111</v>
+        <v>0.1178796361523433</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.172782331796681</v>
+        <v>-0.1963643048424679</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1122865618299526</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8804329622566027</v>
+        <v>0.8665066434444143</v>
       </c>
       <c r="F102" t="n">
-        <v>0.159112713583219</v>
+        <v>0.1421508195628555</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1736837945569146</v>
+        <v>-0.2018603000606446</v>
       </c>
     </row>
   </sheetData>
